--- a/Sprint1/week2/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint1/week2/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/Embedded_system_group25/Embedded_system_group25/Sprint1/week1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20214193\Documents\TUe Documenten\Year 1 - Q4\Embedded Systems\Embedded_system_group25\Embedded_system_group25\Sprint1\week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{6120B647-5FB9-491A-9D70-369BFFF2C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8A91C0-62E9-4467-A90E-B1AF5BEFC2C3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C25E61A-B889-4487-B8B4-7618A71A81F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -1078,7 +1077,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1179,7 +1178,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2091029163"/>
@@ -1255,7 +1254,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443840806"/>
@@ -1278,7 +1277,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1319,10 +1318,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26.291666666666668</c:v>
+                  <c:v>26.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.20833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1358,10 +1357,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26.291666666666668</c:v>
+                  <c:v>26.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.20833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1451,7 +1450,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1669176459"/>
@@ -1497,7 +1496,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1916,13 +1915,13 @@
                   <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5833333333333335</c:v>
+                  <c:v>3.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.2083333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2007,7 +2006,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4221,8 +4220,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4426,8 +4425,12 @@
         <f t="array" ref="B10">INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.125</v>
+      </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="30"/>
@@ -4452,8 +4455,12 @@
         <f t="array" ref="B11">INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="37">
+        <v>0.125</v>
+      </c>
+      <c r="D11" s="37">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -4478,7 +4485,9 @@
         <f t="array" ref="B12">INDEX(Tasks,7,2)</f>
         <v xml:space="preserve">Sprint Task 1.1: Read course material </v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D12" s="31"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -4864,7 +4873,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="41" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -4892,7 +4901,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="41" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -4920,7 +4929,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23"/>
       <c r="B29" s="41" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -7228,11 +7237,11 @@
       </c>
       <c r="C128" s="51">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D128" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E128" s="51">
         <f t="shared" si="0"/>
@@ -7297,43 +7306,43 @@
       </c>
       <c r="C130" s="32">
         <f>SUM(C128)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D130" s="15">
         <f>SUM(D128,C128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E130" s="15">
         <f>SUM(E128,C128,D128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F130" s="15">
         <f>SUM(C128:F128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G130" s="15">
         <f>SUM(C128:G128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H130" s="15">
         <f>SUM(C128:H128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="I130" s="15">
         <f>SUM(C128:I128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="J130" s="15">
         <f>SUM(C128:J128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="K130" s="15">
         <f>SUM(C128:K128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="L130" s="15">
         <f>SUM(C128:L128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M130" s="52"/>
       <c r="O130" s="15"/>
@@ -7353,43 +7362,43 @@
       </c>
       <c r="C131" s="15">
         <f>Parameters!$G$9-C130</f>
-        <v>5.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D131" s="15">
         <f>Parameters!$G$9-D130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="E131" s="15">
         <f>Parameters!$G$9-E130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="F131" s="15">
         <f>Parameters!$G$9-F130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="G131" s="15">
         <f>Parameters!$G$9-G130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="H131" s="15">
         <f>Parameters!$G$9-H130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="I131" s="15">
         <f>Parameters!$G$9-I130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="J131" s="15">
         <f>Parameters!$G$9-J130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="K131" s="15">
         <f>Parameters!$G$9-K130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="L131" s="15">
         <f>Parameters!$G$9-L130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="O131" s="15"/>
       <c r="P131" s="15"/>
@@ -8952,7 +8961,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="41" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -8980,7 +8989,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="41" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -9008,7 +9017,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23"/>
       <c r="B29" s="41" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -9092,7 +9101,7 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="41">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -9118,7 +9127,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="41">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -9144,7 +9153,7 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="41">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -9170,7 +9179,7 @@
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="41">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -13027,7 +13036,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="41" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -13055,7 +13064,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="41" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -13083,7 +13092,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23"/>
       <c r="B29" s="41" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -17097,7 +17106,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="41" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -17125,7 +17134,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="41" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -17153,7 +17162,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23"/>
       <c r="B29" s="41" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -20524,7 +20533,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -21123,7 +21132,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="41"/>
       <c r="C27" s="29"/>
@@ -21148,7 +21157,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -21173,7 +21182,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23"/>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -21249,7 +21258,7 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="41">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -21275,7 +21284,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="41">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -21301,7 +21310,7 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="41">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -21327,7 +21336,7 @@
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="41">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -23354,7 +23363,7 @@
       <c r="W122" s="15"/>
       <c r="X122" s="15"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="49"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -23377,7 +23386,7 @@
       <c r="W123" s="15"/>
       <c r="X123" s="15"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="49"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -23400,7 +23409,7 @@
       <c r="W124" s="15"/>
       <c r="X124" s="15"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="49"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -23423,7 +23432,7 @@
       <c r="W125" s="15"/>
       <c r="X125" s="15"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="49"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -23446,7 +23455,7 @@
       <c r="W126" s="15"/>
       <c r="X126" s="15"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="49"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -23469,7 +23478,7 @@
       <c r="W127" s="15"/>
       <c r="X127" s="15"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="50" t="s">
         <v>153</v>
       </c>
@@ -23524,7 +23533,7 @@
       <c r="W128" s="15"/>
       <c r="X128" s="15"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="49"/>
       <c r="M129" s="52"/>
       <c r="O129" s="15"/>
@@ -25181,7 +25190,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="41" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -25209,7 +25218,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="41" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -25237,7 +25246,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23"/>
       <c r="B29" s="41" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -28889,11 +28898,11 @@
       </c>
       <c r="C10" s="57">
         <f>SUM('Serkan Efe Durusu'!C10,'Ismail Elmasry'!C10,'can Işmar'!C10,'Marios Papalouka'!C10,'Metehan Topaç'!C10,'Celine Zanders '!C10)</f>
-        <v>3.5833333333333335</v>
+        <v>3.75</v>
       </c>
       <c r="D10" s="57">
         <f>SUM('Serkan Efe Durusu'!D10,'Ismail Elmasry'!D10,'can Işmar'!D10,'Marios Papalouka'!D10,'Metehan Topaç'!D10,'Celine Zanders '!D10)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E10" s="57">
         <f>SUM('Serkan Efe Durusu'!E10,'Ismail Elmasry'!E10,'can Işmar'!E10,'Marios Papalouka'!E10,'Metehan Topaç'!E10,'Celine Zanders '!E10)</f>
@@ -28929,7 +28938,7 @@
       </c>
       <c r="M10" s="60">
         <f t="shared" si="0"/>
-        <v>3.5833333333333335</v>
+        <v>3.875</v>
       </c>
       <c r="N10" s="59" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -28943,11 +28952,11 @@
       </c>
       <c r="C11" s="57">
         <f>SUM('Serkan Efe Durusu'!C11,'Ismail Elmasry'!C11,'can Işmar'!C11,'Marios Papalouka'!C11,'Metehan Topaç'!C11,'Celine Zanders '!C11)</f>
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="D11" s="57">
         <f>SUM('Serkan Efe Durusu'!D11,'Ismail Elmasry'!D11,'can Işmar'!D11,'Marios Papalouka'!D11,'Metehan Topaç'!D11,'Celine Zanders '!D11)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E11" s="57">
         <f>SUM('Serkan Efe Durusu'!E11,'Ismail Elmasry'!E11,'can Işmar'!E11,'Marios Papalouka'!E11,'Metehan Topaç'!E11,'Celine Zanders '!E11)</f>
@@ -28983,7 +28992,7 @@
       </c>
       <c r="M11" s="60">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2083333333333335</v>
       </c>
       <c r="N11" s="59" t="str">
         <f t="array" ref="N11">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M11/INDEX(Tasks,2,3),"")</f>
@@ -28997,7 +29006,7 @@
       </c>
       <c r="C12" s="57">
         <f>SUM('Serkan Efe Durusu'!C12,'Ismail Elmasry'!C12,'can Işmar'!C12,'Marios Papalouka'!C12,'Metehan Topaç'!C12,'Celine Zanders '!C12)</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D12" s="57">
         <f>SUM('Serkan Efe Durusu'!D12,'Ismail Elmasry'!D12,'can Işmar'!D12,'Marios Papalouka'!D12,'Metehan Topaç'!D12,'Celine Zanders '!D12)</f>
@@ -29037,7 +29046,7 @@
       </c>
       <c r="M12" s="60">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N12" s="59" t="str">
         <f t="array" ref="N12">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M12/INDEX(Tasks,1,3),"")</f>
@@ -34993,7 +35002,7 @@
     <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="63"/>
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35038,11 +35047,11 @@
       </c>
       <c r="C135" s="30">
         <f>'Serkan Efe Durusu'!C128</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D135" s="30">
         <f>'Serkan Efe Durusu'!D128</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E135" s="30">
         <f>'Serkan Efe Durusu'!E128</f>
@@ -35078,7 +35087,7 @@
       </c>
       <c r="M135" s="65">
         <f t="shared" ref="M135:M143" si="1">SUM(C135:L135)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35414,11 +35423,11 @@
     <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="65">
         <f t="shared" ref="C143:L143" si="2">SUM(C135:C142)</f>
-        <v>26.291666666666668</v>
+        <v>26.625</v>
       </c>
       <c r="D143" s="65">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E143" s="65">
         <f t="shared" si="2"/>
@@ -35454,7 +35463,7 @@
       </c>
       <c r="M143" s="65">
         <f t="shared" si="1"/>
-        <v>26.291666666666668</v>
+        <v>26.833333333333332</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
